--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2233E44-75EA-4231-A5E8-400BA6C2B854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CA826F-417B-4666-B540-9F66B3781E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="7200" yWindow="1440" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{B881FF5B-B762-4804-AE01-F58347836941}"/>
+    <x:workbookView xWindow="7200" yWindow="2130" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{13278269-957F-491C-B4A4-4248723E724C}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t>1. başlık formata uygun.</x:t>
   </x:si>
   <x:si>
+    <x:t>5. satır 5. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
     <x:t>2. başlık formata uygun.</x:t>
   </x:si>
   <x:si>
+    <x:t>7. satır 20. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
     <x:t>3. başlık formata uygun.</x:t>
   </x:si>
   <x:si>
+    <x:t>7. satır 21. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
     <x:t>4. başlık formata uygun.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satır 22. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
     <x:t>5. başlık formata uygun.</x:t>
@@ -470,7 +482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{92C79644-E4E0-48B7-958C-73FA9788C3FE}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5503A3FE-9992-4ACD-8290-755AD8725394}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -480,119 +492,131 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="2" spans="1:1">
+    <x:row r="2" spans="1:2">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1">
+      <x:c r="B2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
       <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
       <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
       <x:c r="A6" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
       <x:c r="A7" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
       <x:c r="A8" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
       <x:c r="A9" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
       <x:c r="A10" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
       <x:c r="A11" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
       <x:c r="A12" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
       <x:c r="A13" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
       <x:c r="A14" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
       <x:c r="A15" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
       <x:c r="A16" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
       <x:c r="A17" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
       <x:c r="A18" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
       <x:c r="A19" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:1">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
       <x:c r="A20" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
       <x:c r="A21" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:1">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
       <x:c r="A22" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:1">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
       <x:c r="A23" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:1">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
       <x:c r="A24" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67CA826F-417B-4666-B540-9F66B3781E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231D8306-0FEA-42E5-BF7E-984D874E3BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="7200" yWindow="2130" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{13278269-957F-491C-B4A4-4248723E724C}"/>
+    <x:workbookView xWindow="7200" yWindow="2130" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{06776B7F-B1D4-4CA2-B613-2EABC3DE2EA0}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,87 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
-    <x:t>1. başlık formata uygun.</x:t>
+    <x:t>7. başlık formata uygun değil.</x:t>
   </x:si>
   <x:si>
     <x:t>5. satır 5. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
-    <x:t>2. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
     <x:t>7. satır 20. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. başlık formata uygun.</x:t>
   </x:si>
   <x:si>
     <x:t>7. satır 21. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
-    <x:t>4. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
     <x:t>7. satır 22. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22. başlık formata uygun.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23. başlık formata uygun.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -482,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5503A3FE-9992-4ACD-8290-755AD8725394}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D4B1C877-8543-4569-BCE5-1DF890CE23BE}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -501,122 +435,18 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="B4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="1" t="s">
+    <x:row r="5" spans="1:2">
+      <x:c r="B5" s="1" t="s">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="1" t="s">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231D8306-0FEA-42E5-BF7E-984D874E3BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677E16F-748E-41A7-B316-3DB5860843F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="7200" yWindow="2130" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{06776B7F-B1D4-4CA2-B613-2EABC3DE2EA0}"/>
+    <x:workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{337D94A8-6890-4045-8A18-BEAA2473CE71}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <x:si>
-    <x:t>7. başlık formata uygun değil.</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <x:si>
+    <x:t>7. başlık formata uygun değil: Kontrol Şekli
+(Otomatik, Manuel,BT Bağımlı Manuel)</x:t>
   </x:si>
   <x:si>
     <x:t>5. satır 5. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. satırdaki kontrol kodu değeri doğru değil: KKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satırdaki kontrol numarası değeri doğru değil: 006</x:t>
   </x:si>
   <x:si>
     <x:t>7. satır 20. sütun hücresi boş.</x:t>
@@ -416,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{D4B1C877-8543-4569-BCE5-1DF890CE23BE}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A00F330A-B9B7-427F-810E-6EC4544C67EE}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -426,27 +433,33 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="2" spans="1:2">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:2">
+    <x:row r="3" spans="1:4">
       <x:c r="B3" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
+    <x:row r="4" spans="1:4">
       <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:2">
+    <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -1,130 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8677E16F-748E-41A7-B316-3DB5860843F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{337D94A8-6890-4045-8A18-BEAA2473CE71}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3944148-6933-46CC-82B3-FEC7FE00FD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AAF1E40-7D88-4AB5-A66F-37EFFBBBA325}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <x:si>
-    <x:t>7. başlık formata uygun değil: Kontrol Şekli
-(Otomatik, Manuel,BT Bağımlı Manuel)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. satır 5. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. satırdaki kontrol kodu değeri doğru değil: KKR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. satırdaki kontrol numarası değeri doğru değil: 006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. satır 20. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. satır 21. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. satır 22. sütun hücresi boş.</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>5. satır 5. sütun hücresi boş.</t>
+  </si>
+  <si>
+    <t>3. satırdaki kontrol kodu değeri doğru değil: KKR</t>
+  </si>
+  <si>
+    <t>7. satırdaki kontrol numarası değeri doğru değil: 006</t>
+  </si>
+  <si>
+    <t>4. satırdaki değer doğru değil: deneme</t>
+  </si>
+  <si>
+    <t>7. satır 20. sütun hücresi boş.</t>
+  </si>
+  <si>
+    <t>8. satırdaki değer doğru değil: -</t>
+  </si>
+  <si>
+    <t>7. satır 21. sütun hücresi boş.</t>
+  </si>
+  <si>
+    <t>7. satır 22. sütun hücresi boş.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:charset val="162"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,50 +409,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A00F330A-B9B7-427F-810E-6EC4544C67EE}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="B4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50432F00-B441-4ADE-A127-D1D5BB4B0B66}">
+  <dimension ref="B2:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="B2:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -1,116 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3944148-6933-46CC-82B3-FEC7FE00FD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1AAF1E40-7D88-4AB5-A66F-37EFFBBBA325}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{1AAF1E40-7D88-4AB5-A66F-37EFFBBBA325}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>5. satır 5. sütun hücresi boş.</t>
-  </si>
-  <si>
-    <t>3. satırdaki kontrol kodu değeri doğru değil: KKR</t>
-  </si>
-  <si>
-    <t>7. satırdaki kontrol numarası değeri doğru değil: 006</t>
-  </si>
-  <si>
-    <t>4. satırdaki değer doğru değil: deneme</t>
-  </si>
-  <si>
-    <t>7. satır 20. sütun hücresi boş.</t>
-  </si>
-  <si>
-    <t>8. satırdaki değer doğru değil: -</t>
-  </si>
-  <si>
-    <t>7. satır 21. sütun hücresi boş.</t>
-  </si>
-  <si>
-    <t>7. satır 22. sütun hücresi boş.</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <x:si>
+    <x:t>5. satır 5. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. satırdaki kontrol kodu değeri doğru değil: KKR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satırdaki kontrol numarası değeri doğru değil: 006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. satırdaki değer doğru değil: deneme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satır 20. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. satırdaki değer doğru değil: -</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satır 21. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satır 22. sütun hücresi boş.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:charset val="162"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,54 +474,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50432F00-B441-4ADE-A127-D1D5BB4B0B66}">
-  <dimension ref="B2:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="B2:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{50432F00-B441-4ADE-A127-D1D5BB4B0B66}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="B2:E5"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="E3" sqref="E3 E3:E3 B2:E5"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <x:col min="2" max="2" width="26.710938" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="44.285156" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="47.570312" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="35.710938" style="2" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="B2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="B3" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="B4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <x:c r="B5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="G6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="G7" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="G8" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="G9" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="G10" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="G11" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="G12" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="G13" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="G14" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="G15" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:7">
+      <x:c r="G16" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:7">
+      <x:c r="G17" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Output/Finding Results.xlsx
+++ b/Output/Finding Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TR997437\Desktop\RAS Otomasyon\Processes\RKM03\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3944148-6933-46CC-82B3-FEC7FE00FD8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EB4D309-7B14-4DFD-ABF8-84DA145EEF79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{1AAF1E40-7D88-4AB5-A66F-37EFFBBBA325}"/>
+    <x:workbookView xWindow="5775" yWindow="3420" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{EC567F75-1B67-4EAE-A689-20E683D4ADEF}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,39 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <x:si>
-    <x:t>5. satır 5. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. satırdaki kontrol kodu değeri doğru değil: KKR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. satırdaki kontrol numarası değeri doğru değil: 006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. satırdaki değer doğru değil: deneme</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+  <x:si>
+    <x:t>7. satır 20. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
     <x:t>1. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
   </x:si>
   <x:si>
-    <x:t>7. satır 20. sütun hücresi boş.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. satırdaki değer doğru değil: -</x:t>
+    <x:t>7. satır 21. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
     <x:t>1. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
   </x:si>
   <x:si>
-    <x:t>7. satır 21. sütun hücresi boş.</x:t>
+    <x:t>7. satır 22. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
     <x:t>2. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
   </x:si>
   <x:si>
-    <x:t>7. satır 22. sütun hücresi boş.</x:t>
+    <x:t>54. satır 20. sütun hücresi boş.</x:t>
   </x:si>
   <x:si>
     <x:t>2. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
@@ -105,7 +93,340 @@
     <x:t>8. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
   </x:si>
   <x:si>
-    <x:t>8. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+    <x:t>9. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52. satırdaki test için alınan örnek sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97. satırdaki popülasyon sayısı doğru değil ('365' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98. satırdaki popülasyon sayısı doğru değil ('365' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100. satırdaki popülasyon sayısı doğru değil ('?' olmalıydı): Tüm</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -155,9 +476,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -474,127 +794,661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{50432F00-B441-4ADE-A127-D1D5BB4B0B66}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{BC2E6A13-5B63-4C2B-8BB8-0F9DC4A8D011}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="B2:E5"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E3" sqref="E3 E3:E3 B2:E5"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="26.710938" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="44.285156" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="47.570312" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="35.710938" style="2" bestFit="1" customWidth="1"/>
-  </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="B2" s="2" t="s">
+    <x:row r="2" spans="1:7">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="B3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="B4" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="G4" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="B5" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G3" s="2" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="B4" s="2" t="s">
+    <x:row r="6" spans="1:7">
+      <x:c r="G6" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G4" s="2" t="s">
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="G7" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <x:c r="B5" s="2" t="s">
+    <x:row r="8" spans="1:7">
+      <x:c r="G8" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="G9" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="G6" s="2" t="s">
+    <x:row r="10" spans="1:7">
+      <x:c r="G10" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="G7" s="2" t="s">
+    <x:row r="11" spans="1:7">
+      <x:c r="G11" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="G8" s="2" t="s">
+    <x:row r="12" spans="1:7">
+      <x:c r="G12" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="G9" s="2" t="s">
+    <x:row r="13" spans="1:7">
+      <x:c r="G13" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="G10" s="2" t="s">
+    <x:row r="14" spans="1:7">
+      <x:c r="G14" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="G11" s="2" t="s">
+    <x:row r="15" spans="1:7">
+      <x:c r="G15" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="G12" s="2" t="s">
+    <x:row r="16" spans="1:7">
+      <x:c r="G16" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="G13" s="2" t="s">
+    <x:row r="17" spans="1:7">
+      <x:c r="G17" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="G14" s="2" t="s">
+    <x:row r="18" spans="1:7">
+      <x:c r="G18" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="G15" s="2" t="s">
+    <x:row r="19" spans="1:7">
+      <x:c r="G19" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="G16" s="2" t="s">
+    <x:row r="20" spans="1:7">
+      <x:c r="G20" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:7">
-      <x:c r="G17" s="2" t="s">
+    <x:row r="21" spans="1:7">
+      <x:c r="G21" s="1" t="s">
         <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="G22" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="G23" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="G24" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="G25" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="G26" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="G27" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="G28" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="G29" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="G30" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="G31" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="G32" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="G33" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="G34" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="G35" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="G36" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="G37" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="G38" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="G39" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="G40" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="G41" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="G42" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="G43" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="G44" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="G45" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="G46" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="G47" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="G48" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="G49" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="G50" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="G51" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="G52" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="G53" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="G54" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:7">
+      <x:c r="G55" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:7">
+      <x:c r="G56" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:7">
+      <x:c r="G57" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:7">
+      <x:c r="G58" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:7">
+      <x:c r="G59" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="G60" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:7">
+      <x:c r="G61" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:7">
+      <x:c r="G62" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:7">
+      <x:c r="G63" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:7">
+      <x:c r="G64" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:7">
+      <x:c r="G65" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:7">
+      <x:c r="G66" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:7">
+      <x:c r="G67" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:7">
+      <x:c r="G68" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:7">
+      <x:c r="G69" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:7">
+      <x:c r="G70" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:7">
+      <x:c r="G71" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:7">
+      <x:c r="G72" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:7">
+      <x:c r="G73" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:7">
+      <x:c r="G74" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:7">
+      <x:c r="G75" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:7">
+      <x:c r="G76" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:7">
+      <x:c r="G77" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:7">
+      <x:c r="G78" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:7">
+      <x:c r="G79" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:7">
+      <x:c r="G80" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:7">
+      <x:c r="G81" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:7">
+      <x:c r="G82" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:7">
+      <x:c r="G83" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:7">
+      <x:c r="G84" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:7">
+      <x:c r="G85" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:7">
+      <x:c r="G86" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:7">
+      <x:c r="G87" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:7">
+      <x:c r="G88" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:7">
+      <x:c r="G89" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:7">
+      <x:c r="G90" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:7">
+      <x:c r="G91" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:7">
+      <x:c r="G92" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:7">
+      <x:c r="G93" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:7">
+      <x:c r="G94" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:7">
+      <x:c r="G95" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:7">
+      <x:c r="G96" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:7">
+      <x:c r="G97" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:7">
+      <x:c r="G98" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:7">
+      <x:c r="G99" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:7">
+      <x:c r="G100" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:7">
+      <x:c r="G101" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:7">
+      <x:c r="G102" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:7">
+      <x:c r="G103" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:7">
+      <x:c r="G104" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:7">
+      <x:c r="G105" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:7">
+      <x:c r="G106" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:7">
+      <x:c r="G107" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:7">
+      <x:c r="G108" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:7">
+      <x:c r="G109" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:7">
+      <x:c r="G110" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:7">
+      <x:c r="G111" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:7">
+      <x:c r="G112" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:7">
+      <x:c r="G113" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:7">
+      <x:c r="G114" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:7">
+      <x:c r="G115" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:7">
+      <x:c r="G116" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:7">
+      <x:c r="G117" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:7">
+      <x:c r="G118" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:7">
+      <x:c r="G119" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:7">
+      <x:c r="G120" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:7">
+      <x:c r="G121" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:7">
+      <x:c r="G122" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:7">
+      <x:c r="G123" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:7">
+      <x:c r="G124" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:7">
+      <x:c r="G125" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:7">
+      <x:c r="G126" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:7">
+      <x:c r="G127" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:7">
+      <x:c r="G128" s="1" t="s">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
